--- a/results/FrequencyTables/26990633_LTR-N.xlsx
+++ b/results/FrequencyTables/26990633_LTR-N.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.136329588014981</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0284644194756554</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0262172284644195</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.964794007490637</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="G2">
-        <v>0.96</v>
+        <v>0.941573033707865</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0239700374531835</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.0194756554307116</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.0434456928838951</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.946067415730337</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0441947565543071</v>
       </c>
       <c r="M2">
-        <v>0.17</v>
+        <v>0.115355805243446</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.06</v>
+        <v>0.0471910112359551</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0202247191011236</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00449438202247191</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="S2">
-        <v>0.98</v>
+        <v>0.953558052434457</v>
       </c>
       <c r="T2">
-        <v>0.02</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.976779026217228</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.953558052434457</v>
       </c>
       <c r="W2">
-        <v>0.02</v>
+        <v>0.0262172284644195</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0247191011235955</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.811985018726592</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0217228464419476</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0052434456928839</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00449438202247191</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
+        <v>0.943820224719101</v>
       </c>
       <c r="G3">
-        <v>0.04</v>
+        <v>0.050187265917603</v>
       </c>
       <c r="H3">
-        <v>0.15</v>
+        <v>0.161797752808989</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>0.856179775280899</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0397003745318352</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00599250936329588</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.79</v>
+        <v>0.832958801498127</v>
       </c>
       <c r="N3">
-        <v>0.11</v>
+        <v>0.0194756554307116</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00299625468164794</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00224719101123596</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.991760299625468</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0142322097378277</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="T3">
-        <v>0.98</v>
+        <v>0.9812734082397</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00973782771535581</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0142322097378277</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0127340823970037</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0119850187265918</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0456928838951311</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.953558052434457</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0307116104868914</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00299625468164794</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000749063670411985</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>0.0239700374531835</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.0142322097378277</v>
       </c>
       <c r="J4">
-        <v>0.96</v>
+        <v>0.91310861423221</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0419475655430712</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.954307116104869</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00299625468164794</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0209737827715356</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.31</v>
+        <v>0.188014981273408</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000749063670411985</v>
       </c>
       <c r="S4">
-        <v>0.02</v>
+        <v>0.0434456928838951</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00898876404494382</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0292134831460674</v>
       </c>
       <c r="W4">
-        <v>0.98</v>
+        <v>0.959550561797753</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.961048689138577</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00599250936329588</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.948314606741573</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.0149812734082397</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1</v>
+        <v>0.0382022471910112</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>0.790262172284644</v>
       </c>
       <c r="I5">
-        <v>0.1</v>
+        <v>0.110112359550562</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00599250936329588</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.048689138576779</v>
       </c>
       <c r="N5">
-        <v>0.89</v>
+        <v>0.959550561797753</v>
       </c>
       <c r="O5">
-        <v>0.94</v>
+        <v>0.949812734082397</v>
       </c>
       <c r="P5">
-        <v>0.69</v>
+        <v>0.789513108614232</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00224719101123596</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.983520599250936</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00149812734082397</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00973782771535581</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00449438202247191</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00299625468164794</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000749063670411985</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00224719101123596</v>
       </c>
     </row>
   </sheetData>
